--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:35:57+00:00</t>
+    <t>2023-02-21T14:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:10:21+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:15:41+00:00</t>
+    <t>2023-02-22T15:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:26:08+00:00</t>
+    <t>2023-02-22T15:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:39:39+00:00</t>
+    <t>2023-02-23T08:27:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:27:18+00:00</t>
+    <t>2023-02-23T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:59:47+00:00</t>
+    <t>2023-02-23T14:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:48:28+00:00</t>
+    <t>2023-02-24T11:38:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:38:09+00:00</t>
+    <t>2023-02-24T14:30:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:30:46+00:00</t>
+    <t>2023-02-27T07:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is to record prescribed ARV regimen against a given therapeutic line</t>
+    <t>This profile is to record prescribed ARV regimen against a given therapeutic line.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1153,6 +1153,9 @@
   </si>
   <si>
     <t>ART Regimen Line</t>
+  </si>
+  <si>
+    <t>Therapeutic lines that are used to classify the patient's currently prescribed ARV regimen.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -6737,7 +6740,7 @@
         <v>363</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6797,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>138</v>
@@ -6817,10 +6820,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6933,10 +6936,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6962,14 +6965,14 @@
         <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6979,7 +6982,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -6997,10 +7000,10 @@
         <v>188</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7018,7 +7021,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7036,7 +7039,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7047,10 +7050,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7073,17 +7076,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>156</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7132,7 +7135,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7161,10 +7164,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7193,13 +7196,13 @@
         <v>161</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>163</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7248,7 +7251,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7277,10 +7280,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7306,16 +7309,16 @@
         <v>203</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7344,7 +7347,7 @@
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7362,7 +7365,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7377,24 +7380,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7420,13 +7423,13 @@
         <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7455,10 +7458,10 @@
         <v>208</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7476,7 +7479,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7491,7 +7494,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7505,10 +7508,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7531,16 +7534,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7590,7 +7593,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7619,10 +7622,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7648,14 +7651,14 @@
         <v>294</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -7704,7 +7707,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7733,10 +7736,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7762,16 +7765,16 @@
         <v>107</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -7799,10 +7802,10 @@
         <v>188</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7820,7 +7823,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7835,24 +7838,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7878,13 +7881,13 @@
         <v>203</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7934,7 +7937,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7949,7 +7952,7 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
@@ -7963,10 +7966,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7989,70 +7992,70 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8067,10 +8070,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8081,10 +8084,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8107,17 +8110,17 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8154,7 +8157,7 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
@@ -8164,7 +8167,7 @@
         <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8188,18 +8191,18 @@
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
@@ -8224,14 +8227,14 @@
         <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8280,7 +8283,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8304,15 +8307,15 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8335,19 +8338,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8396,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8414,21 +8417,21 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8451,19 +8454,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8512,7 +8515,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8527,24 +8530,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8570,10 +8573,10 @@
         <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8603,26 +8606,26 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8640,24 +8643,24 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -8682,10 +8685,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8715,10 +8718,10 @@
         <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8736,7 +8739,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8754,25 +8757,25 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8791,17 +8794,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8850,7 +8853,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8868,21 +8871,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8905,13 +8908,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8962,7 +8965,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8980,21 +8983,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9020,10 +9023,10 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9074,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9092,7 +9095,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9103,10 +9106,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9132,14 +9135,14 @@
         <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9188,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9203,7 +9206,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>339</v>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:31:33+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1142,6 +1142,26 @@
     <t>open</t>
   </si>
   <si>
+    <t>CarePlan.activity.detail.extension:artRegimenSwitchedOrSubstituted</t>
+  </si>
+  <si>
+    <t>artRegimenSwitchedOrSubstituted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://openhie.org/fhir/hiv-cbs/StructureDefinition/art-regimen-switched-or-substituted}
+</t>
+  </si>
+  <si>
+    <t>ART Regimen Switched Or Substituted</t>
+  </si>
+  <si>
+    <t>The ARV regimen has been switched to a new ARV regimen or has been substituted by another ARV regimen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>CarePlan.activity.detail.extension:artRegimenLine</t>
   </si>
   <si>
@@ -1158,10 +1178,6 @@
     <t>Therapeutic lines that are used to classify the patient's currently prescribed ARV regimen.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>CarePlan.activity.detail.modifierExtension</t>
   </si>
   <si>
@@ -1374,82 +1390,76 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t>TQ1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where it should happen</t>
+  </si>
+  <si>
+    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
+  </si>
+  <si>
+    <t>May reference a specific clinical location or may identify a type of location.</t>
+  </si>
+  <si>
+    <t>Helps in planning of activity.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>OBR-24(???!!)</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
+</t>
+  </si>
+  <si>
+    <t>Who will be responsible?</t>
+  </si>
+  <si>
+    <t>Identifies who's expected to be involved in the activity.</t>
+  </si>
+  <si>
+    <t>A performer MAY also be a participant in the care plan.</t>
+  </si>
+  <si>
+    <t>Request.performer</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PFM]</t>
+  </si>
+  <si>
+    <t>PRT-5 : ( PRV-4 = (provider participations)); PRT-5 : ( PRV-4 = (non-provider person participations )) ; PRT-5 : ( PRV-4 = (patient non-subject of care) ) ; PRT-8</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.product[x]</t>
+  </si>
+  <si>
+    <t>What is to be administered/supplied</t>
+  </si>
+  <si>
+    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
+  </si>
+  <si>
+    <t>A product supplied or administered as part of a care plan activity.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
     <t xml:space="preserve">type:$this}
 </t>
-  </si>
-  <si>
-    <t>TQ1</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.scheduled[x]:scheduledPeriod</t>
-  </si>
-  <si>
-    <t>scheduledPeriod</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where it should happen</t>
-  </si>
-  <si>
-    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
-  </si>
-  <si>
-    <t>May reference a specific clinical location or may identify a type of location.</t>
-  </si>
-  <si>
-    <t>Helps in planning of activity.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role</t>
-  </si>
-  <si>
-    <t>OBR-24(???!!)</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|RelatedPerson|Patient|CareTeam|HealthcareService|Device)
-</t>
-  </si>
-  <si>
-    <t>Who will be responsible?</t>
-  </si>
-  <si>
-    <t>Identifies who's expected to be involved in the activity.</t>
-  </si>
-  <si>
-    <t>A performer MAY also be a participant in the care plan.</t>
-  </si>
-  <si>
-    <t>Request.performer</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PFM]</t>
-  </si>
-  <si>
-    <t>PRT-5 : ( PRV-4 = (provider participations)); PRT-5 : ( PRV-4 = (non-provider person participations )) ; PRT-5 : ( PRV-4 = (patient non-subject of care) ) ; PRT-8</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]</t>
-  </si>
-  <si>
-    <t>What is to be administered/supplied</t>
-  </si>
-  <si>
-    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
-  </si>
-  <si>
-    <t>A product supplied or administered as part of a care plan activity.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
     <t>closed</t>
@@ -1861,9 +1871,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.40625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.3359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="32.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6719,13 +6729,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -6823,43 +6833,41 @@
         <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D44" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
+        <v>369</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -6907,7 +6915,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6916,7 +6924,7 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>138</v>
@@ -6925,7 +6933,7 @@
         <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>80</v>
@@ -6936,43 +6944,45 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>370</v>
+        <v>142</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -6982,7 +6992,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>371</v>
+        <v>80</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -6997,13 +7007,13 @@
         <v>80</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>80</v>
@@ -7021,25 +7031,25 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -7050,10 +7060,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7064,7 +7074,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7076,17 +7086,17 @@
         <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7096,7 +7106,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7111,13 +7121,13 @@
         <v>80</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>80</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7135,13 +7145,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7150,10 +7160,10 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>159</v>
+        <v>379</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>80</v>
@@ -7164,10 +7174,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7190,19 +7200,17 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>101</v>
+        <v>381</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7251,7 +7259,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7266,7 +7274,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>159</v>
@@ -7280,10 +7288,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7294,7 +7302,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -7306,19 +7314,19 @@
         <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="M48" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7343,11 +7351,13 @@
         <v>80</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y48" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z48" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>80</v>
@@ -7365,13 +7375,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -7380,24 +7390,24 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>387</v>
+        <v>164</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>388</v>
+        <v>159</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>389</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7408,7 +7418,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -7423,15 +7433,17 @@
         <v>203</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7455,13 +7467,11 @@
         <v>80</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>80</v>
@@ -7479,13 +7489,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -7494,24 +7504,24 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>80</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7534,16 +7544,16 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7569,13 +7579,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>80</v>
+        <v>399</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7593,7 +7603,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7608,7 +7618,7 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -7648,18 +7658,18 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
         <v>405</v>
       </c>
+      <c r="N51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -7722,10 +7732,10 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7736,10 +7746,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7747,32 +7757,30 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N52" t="s" s="2">
         <v>409</v>
       </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>410</v>
       </c>
@@ -7799,13 +7807,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>411</v>
+        <v>80</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -7823,13 +7831,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -7838,24 +7846,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7863,7 +7871,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>87</v>
@@ -7872,24 +7880,26 @@
         <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -7913,13 +7923,13 @@
         <v>80</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>80</v>
@@ -7937,10 +7947,10 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>87</v>
@@ -7952,16 +7962,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="54" hidden="true">
@@ -7986,32 +7996,28 @@
         <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q54" t="s" s="2">
-        <v>427</v>
-      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8070,10 +8076,10 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8084,10 +8090,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8104,28 +8110,32 @@
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8157,17 +8167,19 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8182,28 +8194,26 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>246</v>
+        <v>433</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>247</v>
+        <v>434</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>436</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8224,17 +8234,17 @@
         <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>436</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8283,7 +8293,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8307,15 +8317,15 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8338,19 +8348,19 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8399,7 +8409,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8417,21 +8427,21 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8454,19 +8464,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8515,7 +8525,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8530,24 +8540,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8573,10 +8583,10 @@
         <v>203</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8606,26 +8616,26 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8643,24 +8653,24 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
@@ -8685,10 +8695,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8718,10 +8728,10 @@
         <v>208</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8739,7 +8749,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8757,25 +8767,25 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8794,17 +8804,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8853,7 +8863,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8871,21 +8881,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8908,13 +8918,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8965,7 +8975,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8983,21 +8993,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9023,10 +9033,10 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9077,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9105,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9106,10 +9116,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9135,14 +9145,14 @@
         <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9191,7 +9201,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9206,7 +9216,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>339</v>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1446,6 +1446,10 @@
     <t>CarePlan.activity.detail.product[x]</t>
   </si>
   <si>
+    <t>CodeableConcept
+Reference(Medication|Substance)</t>
+  </si>
+  <si>
     <t>What is to be administered/supplied</t>
   </si>
   <si>
@@ -1462,9 +1466,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>.participation[typeCode=PRD].role</t>
   </si>
   <si>
@@ -1475,6 +1476,9 @@
   </si>
   <si>
     <t>productCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/ValueSet/vs-arv-regimen</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -8565,7 +8569,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
@@ -8580,13 +8584,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>203</v>
+        <v>458</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8616,23 +8620,23 @@
         <v>208</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>457</v>
@@ -8677,7 +8681,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>87</v>
@@ -8695,10 +8699,10 @@
         <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8725,13 +8729,11 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -8778,14 +8780,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8804,17 +8806,17 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8863,7 +8865,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8881,21 +8883,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8918,13 +8920,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8975,7 +8977,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8993,21 +8995,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9033,10 +9035,10 @@
         <v>213</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9087,7 +9089,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9105,7 +9107,7 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
@@ -9116,10 +9118,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9145,14 +9147,14 @@
         <v>334</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -9201,7 +9203,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9216,7 +9218,7 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>339</v>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1390,7 +1390,17 @@
     <t>Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>TQ1</t>
+  </si>
+  <si>
+    <t>CarePlan.activity.detail.scheduled[x]:scheduledPeriod</t>
+  </si>
+  <si>
+    <t>scheduledPeriod</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.location</t>
@@ -1460,10 +1470,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
@@ -1866,7 +1872,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5941,7 +5947,7 @@
         <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -6395,7 +6401,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>87</v>
@@ -6621,7 +6627,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>79</v>
@@ -6847,13 +6853,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>80</v>
@@ -7081,7 +7087,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>80</v>
@@ -7425,7 +7431,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>80</v>
@@ -8285,16 +8291,14 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>435</v>
@@ -8321,17 +8325,19 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
@@ -8352,19 +8358,17 @@
         <v>80</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>241</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8413,7 +8417,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8428,24 +8432,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>246</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8456,7 +8460,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8468,19 +8472,19 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8529,13 +8533,13 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8544,24 +8548,24 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>454</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8572,7 +8576,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -8584,16 +8588,20 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8617,35 +8625,37 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -8654,28 +8664,26 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>457</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8696,13 +8704,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>203</v>
+        <v>461</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8729,29 +8737,29 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8769,25 +8777,27 @@
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="B61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>470</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8797,7 +8807,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -8806,18 +8816,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>471</v>
+        <v>203</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>474</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8841,13 +8849,11 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -8865,7 +8871,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8883,25 +8889,25 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8920,16 +8926,18 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8977,7 +8985,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8995,21 +9003,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9032,13 +9040,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>213</v>
+        <v>473</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9089,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9107,21 +9115,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>340</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9144,18 +9152,16 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>489</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9203,13 +9209,13 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>80</v>
@@ -9218,10 +9224,10 @@
         <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>339</v>
+        <v>487</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>80</v>
@@ -9230,8 +9236,122 @@
         <v>340</v>
       </c>
     </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AN64">
+  <autoFilter ref="A1:AN65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9241,7 +9361,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
+++ b/branches/master/StructureDefinition-hiv-arv-treatment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
